--- a/Operational-Research_Fall_2022/Operational Research-Fall 2022.xlsx
+++ b/Operational-Research_Fall_2022/Operational Research-Fall 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB5F059-9085-4948-96BD-6284E516D5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060C7E52-7663-45C1-8433-84F210C30758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -240,8 +240,8 @@
     <t>Operational Research</t>
   </si>
   <si>
-    <t>3:00 PM To
-06:00 PM</t>
+    <t>09:00 TO
+12:00</t>
   </si>
 </sst>
 </file>
@@ -3932,7 +3932,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4092,7 +4092,9 @@
       <c r="E10" s="28">
         <v>13</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28">
+        <v>20</v>
+      </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -4115,7 +4117,9 @@
       <c r="E11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -4134,13 +4138,15 @@
       <c r="E12" s="24">
         <v>3</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="24">
+        <v>3</v>
+      </c>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="25">
         <f>SUM(D12:I12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K12" s="31">
         <f>(J12/$J$12)*100</f>
@@ -4178,17 +4184,19 @@
       <c r="E14" s="19">
         <v>0</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="19">
+        <v>3</v>
+      </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="25">
         <f>SUM(D14:I14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" ref="K14:K26" si="0">(J14/$J$12)*100</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4207,13 +4215,15 @@
       <c r="E15" s="16">
         <v>3</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="16">
+        <v>3</v>
+      </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="25">
         <f t="shared" ref="J15:J26" si="1">SUM(D15:I15)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="0"/>
@@ -4236,13 +4246,15 @@
       <c r="E16" s="16">
         <v>3</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="16">
+        <v>3</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K16" s="20">
         <f t="shared" si="0"/>
@@ -4265,13 +4277,15 @@
       <c r="E17" s="16">
         <v>3</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K17" s="20">
         <f t="shared" si="0"/>
@@ -4294,13 +4308,15 @@
       <c r="E18" s="16">
         <v>3</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="16">
+        <v>3</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="0"/>
@@ -4323,13 +4339,15 @@
       <c r="E19" s="16">
         <v>3</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="16">
+        <v>3</v>
+      </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K19" s="20">
         <f t="shared" si="0"/>
@@ -4352,13 +4370,15 @@
       <c r="E20" s="16">
         <v>3</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="16">
+        <v>3</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K20" s="20">
         <f t="shared" si="0"/>
@@ -4381,7 +4401,9 @@
       <c r="E21" s="16">
         <v>0</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -4410,13 +4432,15 @@
       <c r="E22" s="16">
         <v>3</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="16">
+        <v>3</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" si="0"/>
@@ -4439,13 +4463,15 @@
       <c r="E23" s="16">
         <v>3</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="16">
+        <v>3</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K23" s="20">
         <f t="shared" si="0"/>
@@ -4468,13 +4494,15 @@
       <c r="E24" s="16">
         <v>3</v>
       </c>
-      <c r="F24" s="16"/>
+      <c r="F24" s="16">
+        <v>3</v>
+      </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" si="0"/>
@@ -4497,13 +4525,15 @@
       <c r="E25" s="16">
         <v>3</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="16">
+        <v>3</v>
+      </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K25" s="20">
         <f t="shared" si="0"/>
@@ -4526,7 +4556,9 @@
       <c r="E26" s="16">
         <v>0</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -4613,7 +4645,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4812,11 +4844,11 @@
       </c>
       <c r="G11" s="8">
         <f>November!J12</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" ref="H11:H24" si="0">SUM(D11:G11)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I11" s="33">
         <f>(H11/$H$11)*100</f>
@@ -4848,15 +4880,15 @@
       </c>
       <c r="G12" s="16">
         <f>November!J14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I12" s="33">
         <f t="shared" ref="I12:I24" si="1">(H12/$H$11)*100</f>
-        <v>25</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J12" s="34" t="str">
         <f>IF(AND(I12&gt;=75),"Eligible","Not Eligible")</f>
@@ -4887,11 +4919,11 @@
       </c>
       <c r="G13" s="16">
         <f>November!J15</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I13" s="33">
         <f t="shared" si="1"/>
@@ -4926,11 +4958,11 @@
       </c>
       <c r="G14" s="16">
         <f>November!J16</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I14" s="33">
         <f t="shared" si="1"/>
@@ -4965,11 +4997,11 @@
       </c>
       <c r="G15" s="16">
         <f>November!J17</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I15" s="33">
         <f t="shared" si="1"/>
@@ -5004,11 +5036,11 @@
       </c>
       <c r="G16" s="16">
         <f>November!J18</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I16" s="33">
         <f t="shared" si="1"/>
@@ -5043,15 +5075,15 @@
       </c>
       <c r="G17" s="16">
         <f>November!J19</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I17" s="33">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="J17" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5082,11 +5114,11 @@
       </c>
       <c r="G18" s="16">
         <f>November!J20</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I18" s="33">
         <f t="shared" si="1"/>
@@ -5129,7 +5161,7 @@
       </c>
       <c r="I19" s="33">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J19" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5160,11 +5192,11 @@
       </c>
       <c r="G20" s="16">
         <f>November!J22</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I20" s="33">
         <f t="shared" si="1"/>
@@ -5199,15 +5231,15 @@
       </c>
       <c r="G21" s="16">
         <f>November!J23</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I21" s="33">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="J21" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5238,11 +5270,11 @@
       </c>
       <c r="G22" s="16">
         <f>November!J24</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I22" s="33">
         <f t="shared" si="1"/>
@@ -5277,15 +5309,15 @@
       </c>
       <c r="G23" s="16">
         <f>November!J25</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I23" s="33">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="J23" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5324,7 +5356,7 @@
       </c>
       <c r="I24" s="33">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="J24" s="34" t="str">
         <f t="shared" si="2"/>

--- a/Operational-Research_Fall_2022/Operational Research-Fall 2022.xlsx
+++ b/Operational-Research_Fall_2022/Operational Research-Fall 2022.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060C7E52-7663-45C1-8433-84F210C30758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="7350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Overall Attendance'!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">September!$A$1:$K$29</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="65">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -247,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -724,62 +723,83 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -793,27 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,7 +1383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K61"/>
   <sheetViews>
@@ -1410,118 +1409,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="C1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1535,10 +1534,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -1550,16 +1549,16 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="50" t="s">
+      <c r="J10" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
@@ -1569,12 +1568,12 @@
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -1594,19 +1593,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -2441,16 +2440,16 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="37"/>
+      <c r="D55" s="54"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="37" t="s">
+      <c r="H55" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="37"/>
+      <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
@@ -2470,6 +2469,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2481,16 +2490,6 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
@@ -2503,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B6C6EE-F81F-4A16-ACC1-7D4F6526DDE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
@@ -2528,118 +2527,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="C1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2653,10 +2652,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -2674,16 +2673,16 @@
       <c r="G10" s="28"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="50" t="s">
+      <c r="J10" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
@@ -2695,12 +2694,12 @@
       <c r="G11" s="32"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -2726,19 +2725,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3152,16 +3151,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="54"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="37"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3181,12 +3180,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3196,12 +3195,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3213,7 +3212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDB4AE5-1A3A-4A60-9541-F960C20935B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
@@ -3238,118 +3237,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="C1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -3363,10 +3362,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -3384,16 +3383,16 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="50" t="s">
+      <c r="J10" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
@@ -3409,12 +3408,12 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -3440,19 +3439,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3866,16 +3865,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="54"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="37"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3895,12 +3894,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3910,12 +3909,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3927,12 +3926,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEE0E38-7D9C-441D-A7B2-331FA8FC39C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3952,118 +3951,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="C1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -4077,10 +4076,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -4095,19 +4094,21 @@
       <c r="F10" s="28">
         <v>20</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="28">
+        <v>27</v>
+      </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="50" t="s">
+      <c r="J10" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
@@ -4120,15 +4121,17 @@
       <c r="F11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -4141,12 +4144,14 @@
       <c r="F12" s="24">
         <v>3</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="24">
+        <v>3</v>
+      </c>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="25">
         <f>SUM(D12:I12)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K12" s="31">
         <f>(J12/$J$12)*100</f>
@@ -4154,19 +4159,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -4187,16 +4192,18 @@
       <c r="F14" s="19">
         <v>3</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="19">
+        <v>3</v>
+      </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="25">
         <f>SUM(D14:I14)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" ref="K14:K26" si="0">(J14/$J$12)*100</f>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4218,12 +4225,14 @@
       <c r="F15" s="16">
         <v>3</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="19">
+        <v>3</v>
+      </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="25">
         <f t="shared" ref="J15:J26" si="1">SUM(D15:I15)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="0"/>
@@ -4249,12 +4258,14 @@
       <c r="F16" s="16">
         <v>3</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K16" s="20">
         <f t="shared" si="0"/>
@@ -4280,7 +4291,9 @@
       <c r="F17" s="16">
         <v>3</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="25">
@@ -4289,7 +4302,7 @@
       </c>
       <c r="K17" s="20">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4311,12 +4324,14 @@
       <c r="F18" s="16">
         <v>3</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="19">
+        <v>3</v>
+      </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="0"/>
@@ -4342,12 +4357,14 @@
       <c r="F19" s="16">
         <v>3</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="19">
+        <v>3</v>
+      </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K19" s="20">
         <f t="shared" si="0"/>
@@ -4373,12 +4390,14 @@
       <c r="F20" s="16">
         <v>3</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="19">
+        <v>3</v>
+      </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K20" s="20">
         <f t="shared" si="0"/>
@@ -4404,7 +4423,9 @@
       <c r="F21" s="16">
         <v>0</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="25">
@@ -4435,12 +4456,14 @@
       <c r="F22" s="16">
         <v>3</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="19">
+        <v>3</v>
+      </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" si="0"/>
@@ -4466,12 +4489,14 @@
       <c r="F23" s="16">
         <v>3</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="19">
+        <v>3</v>
+      </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K23" s="20">
         <f t="shared" si="0"/>
@@ -4497,12 +4522,14 @@
       <c r="F24" s="16">
         <v>3</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="19">
+        <v>3</v>
+      </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" si="0"/>
@@ -4528,12 +4555,14 @@
       <c r="F25" s="16">
         <v>3</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="19">
+        <v>3</v>
+      </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K25" s="20">
         <f t="shared" si="0"/>
@@ -4559,7 +4588,9 @@
       <c r="F26" s="16">
         <v>0</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="25">
@@ -4580,16 +4611,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="54"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="37"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -4609,12 +4640,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -4624,12 +4655,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4641,12 +4672,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCCB33B-5A86-4145-9B54-F45864A479A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4667,103 +4698,103 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="C1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="39" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -4777,56 +4808,56 @@
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="67" t="str">
+      <c r="C9" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="63" t="str">
         <f>August!E5</f>
         <v>August 2022</v>
       </c>
-      <c r="E9" s="67" t="str">
+      <c r="E9" s="63" t="str">
         <f>September!E5</f>
         <v>September 2022</v>
       </c>
-      <c r="F9" s="67" t="str">
+      <c r="F9" s="63" t="str">
         <f>October!E5</f>
         <v>October 2022</v>
       </c>
-      <c r="G9" s="67" t="str">
+      <c r="G9" s="63" t="str">
         <f>November!E5</f>
         <v>November 2022</v>
       </c>
-      <c r="H9" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="65" t="s">
+      <c r="H9" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="65" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="59"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="17" t="s">
         <v>13</v>
       </c>
@@ -4844,17 +4875,17 @@
       </c>
       <c r="G11" s="8">
         <f>November!J12</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" ref="H11:H24" si="0">SUM(D11:G11)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I11" s="33">
         <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="J11" s="59"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -4880,15 +4911,15 @@
       </c>
       <c r="G12" s="16">
         <f>November!J14</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I12" s="33">
         <f t="shared" ref="I12:I24" si="1">(H12/$H$11)*100</f>
-        <v>33.333333333333329</v>
+        <v>40</v>
       </c>
       <c r="J12" s="34" t="str">
         <f>IF(AND(I12&gt;=75),"Eligible","Not Eligible")</f>
@@ -4919,11 +4950,11 @@
       </c>
       <c r="G13" s="16">
         <f>November!J15</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I13" s="33">
         <f t="shared" si="1"/>
@@ -4958,11 +4989,11 @@
       </c>
       <c r="G14" s="16">
         <f>November!J16</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I14" s="33">
         <f t="shared" si="1"/>
@@ -5005,7 +5036,7 @@
       </c>
       <c r="I15" s="33">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J15" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5036,11 +5067,11 @@
       </c>
       <c r="G16" s="16">
         <f>November!J18</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I16" s="33">
         <f t="shared" si="1"/>
@@ -5075,15 +5106,15 @@
       </c>
       <c r="G17" s="16">
         <f>November!J19</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I17" s="33">
         <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <v>90</v>
       </c>
       <c r="J17" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5114,11 +5145,11 @@
       </c>
       <c r="G18" s="16">
         <f>November!J20</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I18" s="33">
         <f t="shared" si="1"/>
@@ -5161,7 +5192,7 @@
       </c>
       <c r="I19" s="33">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>30</v>
       </c>
       <c r="J19" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5192,11 +5223,11 @@
       </c>
       <c r="G20" s="16">
         <f>November!J22</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I20" s="33">
         <f t="shared" si="1"/>
@@ -5231,15 +5262,15 @@
       </c>
       <c r="G21" s="16">
         <f>November!J23</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I21" s="33">
         <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <v>90</v>
       </c>
       <c r="J21" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5270,11 +5301,11 @@
       </c>
       <c r="G22" s="16">
         <f>November!J24</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I22" s="33">
         <f t="shared" si="1"/>
@@ -5309,15 +5340,15 @@
       </c>
       <c r="G23" s="16">
         <f>November!J25</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I23" s="33">
         <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <v>90</v>
       </c>
       <c r="J23" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5356,7 +5387,7 @@
       </c>
       <c r="I24" s="33">
         <f t="shared" si="1"/>
-        <v>55.555555555555557</v>
+        <v>50</v>
       </c>
       <c r="J24" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5375,15 +5406,15 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="54"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="57"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="3"/>
@@ -5399,15 +5430,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="J9:J11"/>
@@ -5423,6 +5445,15 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
